--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NAME</t>
   </si>
@@ -25,13 +25,22 @@
     <t>XPATH</t>
   </si>
   <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>https://vertical.ru/catalog/tovary-dlya-doma/novogodnie-tovary/</t>
+  </si>
+  <si>
+    <t>//div[@class='price-wrapper']/div/text()</t>
+  </si>
+  <si>
     <t>citilink</t>
   </si>
   <si>
     <t>https://www.citilink.ru/catalog/smartfony/APPLE/</t>
   </si>
   <si>
-    <t>//html/body/div[4]/div[2]/main/section/div[1]/div[1]/div[3]/div[1]/section/div[1]/div[6]/div[3]/div[2]/span/span[1]</t>
+    <t>//span[@class='ProductCardHorizontal__price_current-price js--ProductCardHorizontal__price_current-price']/text()</t>
   </si>
 </sst>
 </file>
@@ -39,13 +48,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -88,15 +103,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -404,15 +428,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="45.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="99.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="45.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="99.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -422,19 +446,30 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,10 +120,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -435,7 +441,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="45.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="91.57642857142856" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="99.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
